--- a/conditions.xlsx
+++ b/conditions.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25520" windowHeight="15540" tabRatio="500"/>
+    <workbookView xWindow="1200" yWindow="200" windowWidth="14720" windowHeight="14760" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,71 +19,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
   <si>
     <t>imgName</t>
   </si>
   <si>
-    <t>vrouw1</t>
-  </si>
-  <si>
-    <t>vrouw2</t>
-  </si>
-  <si>
-    <t>vrouw3</t>
-  </si>
-  <si>
-    <t>vrouw4</t>
-  </si>
-  <si>
-    <t>vrouw5</t>
-  </si>
-  <si>
-    <t>vrouw6</t>
-  </si>
-  <si>
-    <t>vrouw7</t>
-  </si>
-  <si>
-    <t>vrouw8</t>
-  </si>
-  <si>
-    <t>vrouw9</t>
-  </si>
-  <si>
-    <t>vrouw10</t>
-  </si>
-  <si>
-    <t>man1</t>
-  </si>
-  <si>
-    <t>man2</t>
-  </si>
-  <si>
-    <t>man3</t>
-  </si>
-  <si>
-    <t>man4</t>
-  </si>
-  <si>
-    <t>man5</t>
-  </si>
-  <si>
-    <t>man6</t>
-  </si>
-  <si>
-    <t>man7</t>
-  </si>
-  <si>
-    <t>man8</t>
-  </si>
-  <si>
-    <t>man9</t>
-  </si>
-  <si>
-    <t>man10</t>
-  </si>
-  <si>
     <t>corrAns</t>
   </si>
   <si>
@@ -91,16 +31,53 @@
   </si>
   <si>
     <t>m</t>
+  </si>
+  <si>
+    <t>gist/vrouw1.jpg</t>
+  </si>
+  <si>
+    <t>gist/vrouw2.jpg</t>
+  </si>
+  <si>
+    <t>gist/vrouw3.jpg</t>
+  </si>
+  <si>
+    <t>gist/vrouw4.jpg</t>
+  </si>
+  <si>
+    <t>gist/man1.jpg</t>
+  </si>
+  <si>
+    <t>gist/man2.jpg</t>
+  </si>
+  <si>
+    <t>gist/man3.jpg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -123,13 +100,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -459,180 +440,79 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
         <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/conditions.xlsx
+++ b/conditions.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26124"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rgrouls/Dropbox/KI/ICW/werkgroep/code/CWI/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1200" yWindow="200" windowWidth="14720" windowHeight="14760" tabRatio="500"/>
+    <workbookView xWindow="1200" yWindow="460" windowWidth="14720" windowHeight="14760" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="11">
   <si>
     <t>imgName</t>
   </si>
@@ -115,6 +120,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -440,18 +450,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B121"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A68" workbookViewId="0">
+      <selection activeCell="A82" sqref="A82:B121"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -459,7 +469,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -467,7 +477,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -475,7 +485,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -483,7 +493,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -491,7 +501,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -499,7 +509,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -507,7 +517,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -515,12 +525,911 @@
         <v>3</v>
       </c>
     </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>9</v>
+      </c>
+      <c r="B27" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>4</v>
+      </c>
+      <c r="B29" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>5</v>
+      </c>
+      <c r="B30" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>6</v>
+      </c>
+      <c r="B31" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>7</v>
+      </c>
+      <c r="B32" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>8</v>
+      </c>
+      <c r="B33" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>9</v>
+      </c>
+      <c r="B34" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>10</v>
+      </c>
+      <c r="B35" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>4</v>
+      </c>
+      <c r="B36" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>5</v>
+      </c>
+      <c r="B37" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>6</v>
+      </c>
+      <c r="B38" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>7</v>
+      </c>
+      <c r="B39" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>8</v>
+      </c>
+      <c r="B40" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>9</v>
+      </c>
+      <c r="B41" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>4</v>
+      </c>
+      <c r="B42" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>5</v>
+      </c>
+      <c r="B43" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>6</v>
+      </c>
+      <c r="B44" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>7</v>
+      </c>
+      <c r="B45" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>8</v>
+      </c>
+      <c r="B46" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>9</v>
+      </c>
+      <c r="B47" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>10</v>
+      </c>
+      <c r="B48" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>4</v>
+      </c>
+      <c r="B49" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>5</v>
+      </c>
+      <c r="B50" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>6</v>
+      </c>
+      <c r="B51" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>7</v>
+      </c>
+      <c r="B52" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>8</v>
+      </c>
+      <c r="B53" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>9</v>
+      </c>
+      <c r="B54" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>10</v>
+      </c>
+      <c r="B55" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>4</v>
+      </c>
+      <c r="B56" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>5</v>
+      </c>
+      <c r="B57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>6</v>
+      </c>
+      <c r="B58" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>7</v>
+      </c>
+      <c r="B59" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>8</v>
+      </c>
+      <c r="B60" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>9</v>
+      </c>
+      <c r="B61" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>4</v>
+      </c>
+      <c r="B62" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>5</v>
+      </c>
+      <c r="B63" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>6</v>
+      </c>
+      <c r="B64" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>7</v>
+      </c>
+      <c r="B65" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>8</v>
+      </c>
+      <c r="B66" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>9</v>
+      </c>
+      <c r="B67" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>10</v>
+      </c>
+      <c r="B68" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>4</v>
+      </c>
+      <c r="B69" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>5</v>
+      </c>
+      <c r="B70" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>6</v>
+      </c>
+      <c r="B71" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>7</v>
+      </c>
+      <c r="B72" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>8</v>
+      </c>
+      <c r="B73" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>9</v>
+      </c>
+      <c r="B74" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>10</v>
+      </c>
+      <c r="B75" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>4</v>
+      </c>
+      <c r="B76" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>5</v>
+      </c>
+      <c r="B77" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>6</v>
+      </c>
+      <c r="B78" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>7</v>
+      </c>
+      <c r="B79" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>8</v>
+      </c>
+      <c r="B80" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>9</v>
+      </c>
+      <c r="B81" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>4</v>
+      </c>
+      <c r="B82" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>5</v>
+      </c>
+      <c r="B83" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>6</v>
+      </c>
+      <c r="B84" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>7</v>
+      </c>
+      <c r="B85" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>8</v>
+      </c>
+      <c r="B86" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>9</v>
+      </c>
+      <c r="B87" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>10</v>
+      </c>
+      <c r="B88" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>4</v>
+      </c>
+      <c r="B89" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>5</v>
+      </c>
+      <c r="B90" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>6</v>
+      </c>
+      <c r="B91" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>7</v>
+      </c>
+      <c r="B92" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>8</v>
+      </c>
+      <c r="B93" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>9</v>
+      </c>
+      <c r="B94" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>10</v>
+      </c>
+      <c r="B95" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>4</v>
+      </c>
+      <c r="B96" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>5</v>
+      </c>
+      <c r="B97" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>6</v>
+      </c>
+      <c r="B98" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>7</v>
+      </c>
+      <c r="B99" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>8</v>
+      </c>
+      <c r="B100" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>9</v>
+      </c>
+      <c r="B101" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>4</v>
+      </c>
+      <c r="B102" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>5</v>
+      </c>
+      <c r="B103" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>6</v>
+      </c>
+      <c r="B104" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>7</v>
+      </c>
+      <c r="B105" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>8</v>
+      </c>
+      <c r="B106" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>9</v>
+      </c>
+      <c r="B107" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>10</v>
+      </c>
+      <c r="B108" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>4</v>
+      </c>
+      <c r="B109" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>5</v>
+      </c>
+      <c r="B110" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>6</v>
+      </c>
+      <c r="B111" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>7</v>
+      </c>
+      <c r="B112" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>8</v>
+      </c>
+      <c r="B113" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>9</v>
+      </c>
+      <c r="B114" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>10</v>
+      </c>
+      <c r="B115" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>4</v>
+      </c>
+      <c r="B116" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>5</v>
+      </c>
+      <c r="B117" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>6</v>
+      </c>
+      <c r="B118" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>7</v>
+      </c>
+      <c r="B119" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>8</v>
+      </c>
+      <c r="B120" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>9</v>
+      </c>
+      <c r="B121" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/conditions.xlsx
+++ b/conditions.xlsx
@@ -9,12 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="10880" yWindow="460" windowWidth="14720" windowHeight="14760" tabRatio="500"/>
+    <workbookView xWindow="820" yWindow="460" windowWidth="14720" windowHeight="14760" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -24,30 +24,258 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="84">
   <si>
     <t>imgName</t>
   </si>
   <si>
+    <t>gist/man1.png</t>
+  </si>
+  <si>
+    <t>gist/man2.png</t>
+  </si>
+  <si>
+    <t>gist/man3.png</t>
+  </si>
+  <si>
+    <t>gist/man4.png</t>
+  </si>
+  <si>
+    <t>gist/man5.png</t>
+  </si>
+  <si>
+    <t>gist/man6.png</t>
+  </si>
+  <si>
+    <t>gist/man7.png</t>
+  </si>
+  <si>
+    <t>gist/man8.png</t>
+  </si>
+  <si>
+    <t>gist/man9.png</t>
+  </si>
+  <si>
+    <t>gist/man10.png</t>
+  </si>
+  <si>
+    <t>gist/man11.png</t>
+  </si>
+  <si>
+    <t>gist/man12.png</t>
+  </si>
+  <si>
+    <t>gist/man13.png</t>
+  </si>
+  <si>
+    <t>gist/man14.png</t>
+  </si>
+  <si>
+    <t>gist/man15.png</t>
+  </si>
+  <si>
+    <t>gist/man16.png</t>
+  </si>
+  <si>
+    <t>gist/man17.png</t>
+  </si>
+  <si>
+    <t>gist/man18.png</t>
+  </si>
+  <si>
+    <t>gist/man19.png</t>
+  </si>
+  <si>
+    <t>gist/man20.png</t>
+  </si>
+  <si>
+    <t>gist/man21.png</t>
+  </si>
+  <si>
+    <t>gist/man22.png</t>
+  </si>
+  <si>
+    <t>gist/man23.png</t>
+  </si>
+  <si>
+    <t>gist/man24.png</t>
+  </si>
+  <si>
+    <t>gist/man25.png</t>
+  </si>
+  <si>
+    <t>gist/man26.png</t>
+  </si>
+  <si>
+    <t>gist/man27.png</t>
+  </si>
+  <si>
+    <t>gist/man28.png</t>
+  </si>
+  <si>
+    <t>gist/man29.png</t>
+  </si>
+  <si>
+    <t>gist/man30.png</t>
+  </si>
+  <si>
+    <t>gist/man31.png</t>
+  </si>
+  <si>
+    <t>gist/man32.png</t>
+  </si>
+  <si>
+    <t>gist/man33.png</t>
+  </si>
+  <si>
+    <t>gist/man34.png</t>
+  </si>
+  <si>
+    <t>gist/man35.png</t>
+  </si>
+  <si>
+    <t>gist/man36.png</t>
+  </si>
+  <si>
+    <t>gist/man37.png</t>
+  </si>
+  <si>
+    <t>gist/man38.png</t>
+  </si>
+  <si>
+    <t>gist/man39.png</t>
+  </si>
+  <si>
+    <t>gist/man40.png</t>
+  </si>
+  <si>
+    <t>gist/vrouw1.png</t>
+  </si>
+  <si>
+    <t>gist/vrouw2.png</t>
+  </si>
+  <si>
+    <t>gist/vrouw3.png</t>
+  </si>
+  <si>
+    <t>gist/vrouw4.png</t>
+  </si>
+  <si>
+    <t>gist/vrouw5.png</t>
+  </si>
+  <si>
+    <t>gist/vrouw6.png</t>
+  </si>
+  <si>
+    <t>gist/vrouw7.png</t>
+  </si>
+  <si>
+    <t>gist/vrouw8.png</t>
+  </si>
+  <si>
+    <t>gist/vrouw9.png</t>
+  </si>
+  <si>
+    <t>gist/vrouw10.png</t>
+  </si>
+  <si>
+    <t>gist/vrouw11.png</t>
+  </si>
+  <si>
+    <t>gist/vrouw12.png</t>
+  </si>
+  <si>
+    <t>gist/vrouw13.png</t>
+  </si>
+  <si>
+    <t>gist/vrouw14.png</t>
+  </si>
+  <si>
+    <t>gist/vrouw15.png</t>
+  </si>
+  <si>
+    <t>gist/vrouw16.png</t>
+  </si>
+  <si>
+    <t>gist/vrouw17.png</t>
+  </si>
+  <si>
+    <t>gist/vrouw18.png</t>
+  </si>
+  <si>
+    <t>gist/vrouw19.png</t>
+  </si>
+  <si>
+    <t>gist/vrouw20.png</t>
+  </si>
+  <si>
+    <t>gist/vrouw21.png</t>
+  </si>
+  <si>
+    <t>gist/vrouw22.png</t>
+  </si>
+  <si>
+    <t>gist/vrouw23.png</t>
+  </si>
+  <si>
+    <t>gist/vrouw24.png</t>
+  </si>
+  <si>
+    <t>gist/vrouw25.png</t>
+  </si>
+  <si>
+    <t>gist/vrouw26.png</t>
+  </si>
+  <si>
+    <t>gist/vrouw27.png</t>
+  </si>
+  <si>
+    <t>gist/vrouw28.png</t>
+  </si>
+  <si>
+    <t>gist/vrouw29.png</t>
+  </si>
+  <si>
+    <t>gist/vrouw30.png</t>
+  </si>
+  <si>
+    <t>gist/vrouw31.png</t>
+  </si>
+  <si>
+    <t>gist/vrouw32.png</t>
+  </si>
+  <si>
+    <t>gist/vrouw33.png</t>
+  </si>
+  <si>
+    <t>gist/vrouw34.png</t>
+  </si>
+  <si>
+    <t>gist/vrouw35.png</t>
+  </si>
+  <si>
+    <t>gist/vrouw36.png</t>
+  </si>
+  <si>
+    <t>gist/vrouw37.png</t>
+  </si>
+  <si>
+    <t>gist/vrouw38.png</t>
+  </si>
+  <si>
+    <t>gist/vrouw39.png</t>
+  </si>
+  <si>
+    <t>gist/vrouw40.png</t>
+  </si>
+  <si>
     <t>corrAns</t>
   </si>
   <si>
+    <t>m</t>
+  </si>
+  <si>
     <t>v</t>
-  </si>
-  <si>
-    <t>m</t>
-  </si>
-  <si>
-    <t>gist/vrouw2.png</t>
-  </si>
-  <si>
-    <t>gist/man2.jpg</t>
-  </si>
-  <si>
-    <t>gist/dier5.png</t>
-  </si>
-  <si>
-    <t>gist/vrouw5.png</t>
   </si>
 </sst>
 </file>
@@ -441,10 +669,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B81"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A80" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42:B81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -457,47 +685,647 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="B6" t="s">
-        <v>2</v>
+      <c r="B7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>61</v>
+      </c>
+      <c r="B62" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>62</v>
+      </c>
+      <c r="B63" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>63</v>
+      </c>
+      <c r="B64" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>64</v>
+      </c>
+      <c r="B65" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>65</v>
+      </c>
+      <c r="B66" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>66</v>
+      </c>
+      <c r="B67" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>67</v>
+      </c>
+      <c r="B68" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>68</v>
+      </c>
+      <c r="B69" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>69</v>
+      </c>
+      <c r="B70" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>70</v>
+      </c>
+      <c r="B71" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>71</v>
+      </c>
+      <c r="B72" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>72</v>
+      </c>
+      <c r="B73" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>73</v>
+      </c>
+      <c r="B74" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>74</v>
+      </c>
+      <c r="B75" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>75</v>
+      </c>
+      <c r="B76" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>76</v>
+      </c>
+      <c r="B77" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>77</v>
+      </c>
+      <c r="B78" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>78</v>
+      </c>
+      <c r="B79" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>79</v>
+      </c>
+      <c r="B80" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>80</v>
+      </c>
+      <c r="B81" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
